--- a/resultats_tests_agrupats.xlsx
+++ b/resultats_tests_agrupats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\URV\SD\SD-Prac1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52C8623-5F9B-40C9-B08F-00A4BB697AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB839CE4-CA54-4FF7-8936-16FA0C1B4AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1805,7 +1805,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> Temps/Num Tasks </a:t>
+              <a:t> Speedup/Num Tasks </a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -3781,7 +3781,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> SpeedUp/Num Tasks </a:t>
+              <a:t> Temps/Num Tasks </a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -4299,7 +4299,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> SpeedUp/Num Tasks </a:t>
+              <a:t> Temps/Num Tasks </a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -4817,7 +4817,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> SpeedUp/Num Tasks </a:t>
+              <a:t> Temps/Num Tasks </a:t>
             </a:r>
             <a:endParaRPr lang="es-ES"/>
           </a:p>
@@ -6500,24 +6500,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'SingleNode-Results'!$I$32:$I$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'SingleNode-Results'!$I$33:$I$35</c:f>
+              <c:f>'SingleNode-Results'!$I$32:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -6525,17 +6521,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'SingleNode-Results'!$J$32:$J$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'SingleNode-Results'!$J$33:$J$35</c:f>
+              <c:f>'SingleNode-Results'!$J$32:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6543,6 +6532,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -6580,24 +6572,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'SingleNode-Results'!$I$32:$I$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'SingleNode-Results'!$I$33:$I$35</c:f>
+              <c:f>'SingleNode-Results'!$I$32:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -6605,24 +6593,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'SingleNode-Results'!$K$32:$K$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'SingleNode-Results'!$K$33:$K$35</c:f>
+              <c:f>'SingleNode-Results'!$K$32:$K$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.55</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1.67</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.66</c:v>
                 </c:pt>
               </c:numCache>
@@ -6652,24 +6636,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'SingleNode-Results'!$I$32:$I$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'SingleNode-Results'!$I$33:$I$35</c:f>
+              <c:f>'SingleNode-Results'!$I$32:$I$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -6677,24 +6657,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'SingleNode-Results'!$L$32:$L$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'SingleNode-Results'!$L$33:$L$35</c:f>
+              <c:f>'SingleNode-Results'!$L$32:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.83</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.2200000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -7002,29 +6978,31 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'SingleNode-Results'!$I$32:$I$35</c15:sqref>
+                    <c15:sqref>'SingleNode-Results'!$I$31:$I$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'SingleNode-Results'!$I$33:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'SingleNode-Results'!$I$32:$I$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7085,29 +7063,31 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'SingleNode-Results'!$I$32:$I$35</c15:sqref>
+                    <c15:sqref>'SingleNode-Results'!$I$31:$I$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'SingleNode-Results'!$I$33:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'SingleNode-Results'!$I$32:$I$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7160,29 +7140,31 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'SingleNode-Results'!$I$32:$I$35</c15:sqref>
+                    <c15:sqref>'SingleNode-Results'!$I$31:$I$35</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'SingleNode-Results'!$I$33:$I$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+              <c:f>'SingleNode-Results'!$I$32:$I$35</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>5000</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10000</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -7451,7 +7433,19 @@
               <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Pyro InsultService</a:t>
+              <a:t>Pyro </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>InsultFilter</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -7969,7 +7963,19 @@
               <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Redis InsultService</a:t>
+              <a:t>Redis </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>InsultFilter</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -8487,7 +8493,19 @@
               <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>RabbitMQ InsultService</a:t>
+              <a:t>RabbitMQ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>InsultFilter</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
@@ -20197,8 +20215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="24" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BE63" sqref="BE63"/>
+    <sheetView tabSelected="1" topLeftCell="AF59" zoomScale="63" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BC63" sqref="BC63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
